--- a/NformTester/NformTester/keywordscripts/TST976_ViewAllDevices.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST976_ViewAllDevices.xlsx
@@ -3646,9 +3646,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"10.146.80.100"</t>
-  </si>
-  <si>
     <t>"ABC GXT UPS 100"</t>
   </si>
   <si>
@@ -3746,9 +3743,6 @@
     <t>"All Devices"</t>
   </si>
   <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
     <t>;Restart the procedure by login as user from user group.</t>
   </si>
   <si>
@@ -3765,9 +3759,6 @@
   </si>
   <si>
     <t>;Check the device has ip, name, address, and type.</t>
-  </si>
-  <si>
-    <t>"10.146.80.100 Description for GXT"</t>
   </si>
   <si>
     <t>VerifyNotContains</t>
@@ -3898,6 +3889,16 @@
   </si>
   <si>
     <t>Equal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMPdevice_0$</t>
+  </si>
+  <si>
+    <t>$GXT_0_NAME$</t>
+  </si>
+  <si>
+    <t>"10.146.80.100 Description for GXT"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4863,8 +4864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O244"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="E220" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H220" sqref="H220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4953,7 +4954,7 @@
         <v>754</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -5128,7 +5129,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>803</v>
+        <v>872</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="4"/>
@@ -5244,7 +5245,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="4"/>
@@ -5306,7 +5307,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -5337,7 +5338,7 @@
         <v>13</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -5388,7 +5389,7 @@
         <v>800</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>522</v>
@@ -5417,7 +5418,7 @@
         <v>800</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>250</v>
@@ -5426,7 +5427,7 @@
         <v>4</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>833</v>
+        <v>873</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="4"/>
@@ -5450,7 +5451,7 @@
         <v>800</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>527</v>
@@ -5479,7 +5480,7 @@
         <v>800</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>525</v>
@@ -5508,7 +5509,7 @@
         <v>800</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>526</v>
@@ -5533,10 +5534,10 @@
         <v>800</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>2</v>
@@ -5558,7 +5559,7 @@
         <v>800</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>357</v>
@@ -5567,7 +5568,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="4"/>
@@ -5585,7 +5586,7 @@
         <v>800</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>476</v>
@@ -5594,7 +5595,7 @@
         <v>4</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="4"/>
@@ -5612,7 +5613,7 @@
         <v>800</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>519</v>
@@ -5637,7 +5638,7 @@
         <v>800</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>537</v>
@@ -5662,7 +5663,7 @@
         <v>800</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>538</v>
@@ -5671,7 +5672,7 @@
         <v>4</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I27" s="13"/>
       <c r="J27" s="4"/>
@@ -5689,7 +5690,7 @@
         <v>800</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>539</v>
@@ -5714,7 +5715,7 @@
         <v>800</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>540</v>
@@ -5723,7 +5724,7 @@
         <v>4</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="4"/>
@@ -5741,7 +5742,7 @@
         <v>800</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>17</v>
@@ -5814,7 +5815,7 @@
         <v>800</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>17</v>
@@ -5848,7 +5849,7 @@
         <v>795</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>833</v>
+        <v>873</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -5869,7 +5870,7 @@
         <v>801</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G35" s="13" t="s">
         <v>2</v>
@@ -5888,10 +5889,10 @@
         <v>35</v>
       </c>
       <c r="D36" s="12" t="s">
+        <v>812</v>
+      </c>
+      <c r="E36" s="13" t="s">
         <v>813</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>814</v>
       </c>
       <c r="F36" s="13">
         <v>5</v>
@@ -5911,7 +5912,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -5930,7 +5931,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>19</v>
@@ -5955,7 +5956,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>19</v>
@@ -5980,7 +5981,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>235</v>
@@ -6005,7 +6006,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>248</v>
@@ -6017,7 +6018,7 @@
         <v>4</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -6032,7 +6033,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>248</v>
@@ -6044,7 +6045,7 @@
         <v>4</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="I42" s="13"/>
       <c r="J42" s="4"/>
@@ -6059,7 +6060,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>248</v>
@@ -6071,7 +6072,7 @@
         <v>4</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -6086,7 +6087,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>248</v>
@@ -6098,7 +6099,7 @@
         <v>4</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -6125,7 +6126,7 @@
         <v>4</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -6140,7 +6141,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>248</v>
@@ -6152,7 +6153,7 @@
         <v>4</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="I46" s="13"/>
       <c r="J46" s="4"/>
@@ -6167,7 +6168,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>248</v>
@@ -6179,7 +6180,7 @@
         <v>4</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="I47" s="13"/>
       <c r="J47" s="4"/>
@@ -6194,7 +6195,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>248</v>
@@ -6203,10 +6204,10 @@
         <v>255</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -6221,7 +6222,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>248</v>
@@ -6230,10 +6231,10 @@
         <v>167</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -6248,7 +6249,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>248</v>
@@ -6260,7 +6261,7 @@
         <v>4</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -6275,7 +6276,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>248</v>
@@ -6287,13 +6288,13 @@
         <v>7</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -6306,7 +6307,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>248</v>
@@ -6318,7 +6319,7 @@
         <v>13</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="I52" s="17"/>
       <c r="J52" s="4"/>
@@ -6333,7 +6334,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>248</v>
@@ -6345,7 +6346,7 @@
         <v>13</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -6360,7 +6361,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>248</v>
@@ -6385,7 +6386,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>248</v>
@@ -6410,7 +6411,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>248</v>
@@ -6435,7 +6436,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>248</v>
@@ -6460,7 +6461,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>248</v>
@@ -6485,7 +6486,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E59" s="13" t="s">
         <v>248</v>
@@ -6510,7 +6511,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E60" s="13" t="s">
         <v>200</v>
@@ -6535,7 +6536,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>248</v>
@@ -6583,7 +6584,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>235</v>
@@ -6608,7 +6609,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>248</v>
@@ -6620,7 +6621,7 @@
         <v>4</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
@@ -6635,7 +6636,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>248</v>
@@ -6647,7 +6648,7 @@
         <v>4</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="I65" s="13"/>
       <c r="J65" s="4"/>
@@ -6662,7 +6663,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>248</v>
@@ -6674,7 +6675,7 @@
         <v>4</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
@@ -6689,7 +6690,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>248</v>
@@ -6701,7 +6702,7 @@
         <v>4</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
@@ -6728,7 +6729,7 @@
         <v>4</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
@@ -6743,7 +6744,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>248</v>
@@ -6755,7 +6756,7 @@
         <v>4</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="I69" s="13"/>
       <c r="J69" s="4"/>
@@ -6770,7 +6771,7 @@
         <v>69</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>248</v>
@@ -6782,7 +6783,7 @@
         <v>4</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="I70" s="13"/>
       <c r="J70" s="4"/>
@@ -6797,7 +6798,7 @@
         <v>70</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E71" s="13" t="s">
         <v>248</v>
@@ -6806,10 +6807,10 @@
         <v>255</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
@@ -6824,7 +6825,7 @@
         <v>71</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>248</v>
@@ -6833,10 +6834,10 @@
         <v>167</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
@@ -6851,7 +6852,7 @@
         <v>72</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>248</v>
@@ -6863,7 +6864,7 @@
         <v>4</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
@@ -6878,7 +6879,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E74" s="13" t="s">
         <v>248</v>
@@ -6890,13 +6891,13 @@
         <v>7</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
@@ -6909,7 +6910,7 @@
         <v>74</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>248</v>
@@ -6921,7 +6922,7 @@
         <v>13</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="I75" s="17"/>
       <c r="J75" s="4"/>
@@ -6936,7 +6937,7 @@
         <v>75</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E76" s="13" t="s">
         <v>248</v>
@@ -6948,7 +6949,7 @@
         <v>13</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
@@ -6963,7 +6964,7 @@
         <v>76</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E77" s="13" t="s">
         <v>248</v>
@@ -6988,7 +6989,7 @@
         <v>77</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E78" s="13" t="s">
         <v>248</v>
@@ -7013,7 +7014,7 @@
         <v>78</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E79" s="13" t="s">
         <v>248</v>
@@ -7038,7 +7039,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E80" s="13" t="s">
         <v>248</v>
@@ -7063,7 +7064,7 @@
         <v>80</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E81" s="13" t="s">
         <v>248</v>
@@ -7088,7 +7089,7 @@
         <v>81</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E82" s="13" t="s">
         <v>248</v>
@@ -7113,7 +7114,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E83" s="13" t="s">
         <v>200</v>
@@ -7138,7 +7139,7 @@
         <v>83</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E84" s="13" t="s">
         <v>248</v>
@@ -7163,7 +7164,7 @@
         <v>84</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E85" s="13" t="s">
         <v>235</v>
@@ -7175,7 +7176,7 @@
         <v>795</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I85" s="13"/>
       <c r="J85" s="4"/>
@@ -7190,7 +7191,7 @@
         <v>85</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E86" s="13" t="s">
         <v>235</v>
@@ -7202,7 +7203,7 @@
         <v>795</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I86" s="13"/>
       <c r="J86" s="4"/>
@@ -7217,7 +7218,7 @@
         <v>86</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>235</v>
@@ -7229,7 +7230,7 @@
         <v>56</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="I87" s="13"/>
       <c r="J87" s="4"/>
@@ -7244,7 +7245,7 @@
         <v>87</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="E88" s="13" t="s">
         <v>235</v>
@@ -7269,7 +7270,7 @@
         <v>88</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="E89" s="13" t="s">
         <v>272</v>
@@ -7294,7 +7295,7 @@
         <v>89</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="E90" s="13" t="s">
         <v>272</v>
@@ -7319,7 +7320,7 @@
         <v>90</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E91" s="13" t="s">
         <v>235</v>
@@ -7344,7 +7345,7 @@
         <v>91</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -7363,7 +7364,7 @@
         <v>92</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E93" s="13" t="s">
         <v>19</v>
@@ -7388,7 +7389,7 @@
         <v>93</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>19</v>
@@ -7413,7 +7414,7 @@
         <v>94</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>616</v>
@@ -7425,7 +7426,7 @@
         <v>795</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
@@ -7440,7 +7441,7 @@
         <v>95</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>616</v>
@@ -7487,7 +7488,7 @@
         <v>97</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E98" s="14"/>
       <c r="F98" s="4"/>
@@ -7505,7 +7506,7 @@
         <v>98</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>19</v>
@@ -7529,7 +7530,7 @@
         <v>99</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>19</v>
@@ -7553,7 +7554,7 @@
         <v>100</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>235</v>
@@ -7577,7 +7578,7 @@
         <v>101</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>248</v>
@@ -7589,13 +7590,13 @@
         <v>7</v>
       </c>
       <c r="H102" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="J102" s="4" t="s">
         <v>818</v>
-      </c>
-      <c r="I102" s="4" t="s">
-        <v>874</v>
-      </c>
-      <c r="J102" s="4" t="s">
-        <v>819</v>
       </c>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
@@ -7607,7 +7608,7 @@
         <v>102</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>248</v>
@@ -7631,7 +7632,7 @@
         <v>103</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>235</v>
@@ -7677,7 +7678,7 @@
         <v>105</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E106" s="14"/>
       <c r="F106" s="4"/>
@@ -7695,7 +7696,7 @@
         <v>106</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>19</v>
@@ -7719,7 +7720,7 @@
         <v>107</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>19</v>
@@ -7743,7 +7744,7 @@
         <v>108</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>0</v>
@@ -7753,13 +7754,13 @@
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="I109" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="I109" s="4" t="s">
+      <c r="J109" s="4" t="s">
         <v>823</v>
-      </c>
-      <c r="J109" s="4" t="s">
-        <v>824</v>
       </c>
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
@@ -7771,7 +7772,7 @@
         <v>109</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>19</v>
@@ -7795,7 +7796,7 @@
         <v>110</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>19</v>
@@ -7819,7 +7820,7 @@
         <v>111</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>616</v>
@@ -7831,7 +7832,7 @@
         <v>795</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
@@ -7845,7 +7846,7 @@
         <v>112</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>616</v>
@@ -7891,7 +7892,7 @@
         <v>114</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E115" s="14"/>
       <c r="F115" s="4"/>
@@ -7909,7 +7910,7 @@
         <v>115</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>19</v>
@@ -7933,7 +7934,7 @@
         <v>116</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>19</v>
@@ -7957,7 +7958,7 @@
         <v>117</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>0</v>
@@ -7985,7 +7986,7 @@
         <v>118</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -8003,7 +8004,7 @@
         <v>119</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>19</v>
@@ -8027,7 +8028,7 @@
         <v>120</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>19</v>
@@ -8051,7 +8052,7 @@
         <v>121</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>616</v>
@@ -8063,7 +8064,7 @@
         <v>56</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
@@ -8077,7 +8078,7 @@
         <v>122</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>616</v>
@@ -8123,7 +8124,7 @@
         <v>124</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>619</v>
@@ -8147,7 +8148,7 @@
         <v>125</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>628</v>
@@ -8159,7 +8160,7 @@
         <v>4</v>
       </c>
       <c r="H126" s="13" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
@@ -8173,7 +8174,7 @@
         <v>126</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>628</v>
@@ -8185,7 +8186,7 @@
         <v>4</v>
       </c>
       <c r="H127" s="13" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
@@ -8199,7 +8200,7 @@
         <v>127</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>628</v>
@@ -8223,7 +8224,7 @@
         <v>128</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>619</v>
@@ -8238,7 +8239,7 @@
         <v>2</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>833</v>
+        <v>873</v>
       </c>
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
@@ -8273,7 +8274,7 @@
         <v>130</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>619</v>
@@ -8297,7 +8298,7 @@
         <v>131</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>628</v>
@@ -8309,7 +8310,7 @@
         <v>4</v>
       </c>
       <c r="H132" s="13" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
@@ -8323,7 +8324,7 @@
         <v>132</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>628</v>
@@ -8335,7 +8336,7 @@
         <v>4</v>
       </c>
       <c r="H133" s="13" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
@@ -8349,7 +8350,7 @@
         <v>133</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>628</v>
@@ -8373,7 +8374,7 @@
         <v>134</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>619</v>
@@ -8397,7 +8398,7 @@
         <v>135</v>
       </c>
       <c r="D136" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>271</v>
@@ -8421,7 +8422,7 @@
         <v>136</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>616</v>
@@ -8433,7 +8434,7 @@
         <v>56</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
@@ -8447,7 +8448,7 @@
         <v>137</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>616</v>
@@ -8471,7 +8472,7 @@
         <v>138</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>619</v>
@@ -8483,7 +8484,7 @@
         <v>5</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
@@ -8497,7 +8498,7 @@
         <v>139</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>619</v>
@@ -8509,7 +8510,7 @@
         <v>5</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
@@ -8523,7 +8524,7 @@
         <v>140</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>619</v>
@@ -8547,7 +8548,7 @@
         <v>141</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>616</v>
@@ -8571,7 +8572,7 @@
         <v>142</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
@@ -8589,7 +8590,7 @@
         <v>143</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>19</v>
@@ -8613,7 +8614,7 @@
         <v>144</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>19</v>
@@ -8637,7 +8638,7 @@
         <v>145</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>616</v>
@@ -8649,7 +8650,7 @@
         <v>56</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
@@ -8663,7 +8664,7 @@
         <v>146</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>616</v>
@@ -8687,7 +8688,7 @@
         <v>147</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>619</v>
@@ -8702,7 +8703,7 @@
         <v>2</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
@@ -8715,7 +8716,7 @@
         <v>148</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>619</v>
@@ -8761,7 +8762,7 @@
         <v>150</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>619</v>
@@ -8785,7 +8786,7 @@
         <v>151</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>619</v>
@@ -8831,7 +8832,7 @@
         <v>153</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>619</v>
@@ -8855,7 +8856,7 @@
         <v>154</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>271</v>
@@ -8879,7 +8880,7 @@
         <v>155</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>616</v>
@@ -8925,7 +8926,7 @@
         <v>157</v>
       </c>
       <c r="D158" s="14" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
@@ -8943,7 +8944,7 @@
         <v>158</v>
       </c>
       <c r="D159" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E159" s="4" t="s">
         <v>19</v>
@@ -8967,7 +8968,7 @@
         <v>159</v>
       </c>
       <c r="D160" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E160" s="4" t="s">
         <v>19</v>
@@ -8991,7 +8992,7 @@
         <v>160</v>
       </c>
       <c r="D161" s="15" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E161" s="4" t="s">
         <v>0</v>
@@ -9001,13 +9002,13 @@
       </c>
       <c r="G161" s="4"/>
       <c r="H161" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="I161" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="I161" s="4" t="s">
+      <c r="J161" s="4" t="s">
         <v>823</v>
-      </c>
-      <c r="J161" s="4" t="s">
-        <v>824</v>
       </c>
       <c r="K161" s="4"/>
       <c r="L161" s="4"/>
@@ -9019,7 +9020,7 @@
         <v>161</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
@@ -9037,7 +9038,7 @@
         <v>162</v>
       </c>
       <c r="D163" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>19</v>
@@ -9061,7 +9062,7 @@
         <v>163</v>
       </c>
       <c r="D164" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E164" s="4" t="s">
         <v>19</v>
@@ -9085,7 +9086,7 @@
         <v>164</v>
       </c>
       <c r="D165" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E165" s="4" t="s">
         <v>616</v>
@@ -9097,7 +9098,7 @@
         <v>56</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
@@ -9111,7 +9112,7 @@
         <v>165</v>
       </c>
       <c r="D166" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E166" s="4" t="s">
         <v>616</v>
@@ -9135,7 +9136,7 @@
         <v>166</v>
       </c>
       <c r="D167" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E167" s="4" t="s">
         <v>619</v>
@@ -9150,7 +9151,7 @@
         <v>2</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J167" s="4"/>
       <c r="K167" s="4"/>
@@ -9163,7 +9164,7 @@
         <v>167</v>
       </c>
       <c r="D168" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E168" s="4" t="s">
         <v>619</v>
@@ -9187,7 +9188,7 @@
         <v>168</v>
       </c>
       <c r="D169" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E169" s="4" t="s">
         <v>619</v>
@@ -9233,7 +9234,7 @@
         <v>170</v>
       </c>
       <c r="D171" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E171" s="4" t="s">
         <v>619</v>
@@ -9279,7 +9280,7 @@
         <v>172</v>
       </c>
       <c r="D173" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E173" s="4" t="s">
         <v>619</v>
@@ -9303,7 +9304,7 @@
         <v>173</v>
       </c>
       <c r="D174" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E174" s="4" t="s">
         <v>271</v>
@@ -9327,7 +9328,7 @@
         <v>174</v>
       </c>
       <c r="D175" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E175" s="4" t="s">
         <v>616</v>
@@ -9373,7 +9374,7 @@
         <v>176</v>
       </c>
       <c r="D177" s="14" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
@@ -9391,7 +9392,7 @@
         <v>177</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E178" s="4" t="s">
         <v>19</v>
@@ -9415,7 +9416,7 @@
         <v>178</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E179" s="4" t="s">
         <v>19</v>
@@ -9439,7 +9440,7 @@
         <v>179</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E180" s="4" t="s">
         <v>0</v>
@@ -9449,13 +9450,13 @@
       </c>
       <c r="G180" s="4"/>
       <c r="H180" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I180" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="J180" s="4" t="s">
         <v>823</v>
-      </c>
-      <c r="J180" s="4" t="s">
-        <v>824</v>
       </c>
       <c r="K180" s="4"/>
       <c r="L180" s="4"/>
@@ -9467,7 +9468,7 @@
         <v>180</v>
       </c>
       <c r="D181" s="14" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
@@ -9485,7 +9486,7 @@
         <v>181</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E182" s="4" t="s">
         <v>19</v>
@@ -9509,7 +9510,7 @@
         <v>182</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E183" s="4" t="s">
         <v>19</v>
@@ -9533,7 +9534,7 @@
         <v>183</v>
       </c>
       <c r="D184" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E184" s="4" t="s">
         <v>616</v>
@@ -9545,7 +9546,7 @@
         <v>56</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
@@ -9559,7 +9560,7 @@
         <v>184</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E185" s="4" t="s">
         <v>616</v>
@@ -9583,7 +9584,7 @@
         <v>185</v>
       </c>
       <c r="D186" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E186" s="4" t="s">
         <v>619</v>
@@ -9598,7 +9599,7 @@
         <v>2</v>
       </c>
       <c r="I186" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J186" s="4"/>
       <c r="K186" s="4"/>
@@ -9611,7 +9612,7 @@
         <v>186</v>
       </c>
       <c r="D187" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E187" s="4" t="s">
         <v>619</v>
@@ -9681,7 +9682,7 @@
         <v>189</v>
       </c>
       <c r="D190" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E190" s="4" t="s">
         <v>619</v>
@@ -9727,7 +9728,7 @@
         <v>191</v>
       </c>
       <c r="D192" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>619</v>
@@ -9751,7 +9752,7 @@
         <v>192</v>
       </c>
       <c r="D193" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E193" s="4" t="s">
         <v>271</v>
@@ -9775,7 +9776,7 @@
         <v>193</v>
       </c>
       <c r="D194" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E194" s="4" t="s">
         <v>616</v>
@@ -9821,7 +9822,7 @@
         <v>195</v>
       </c>
       <c r="D196" s="14" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E196" s="14"/>
       <c r="F196" s="4"/>
@@ -9839,7 +9840,7 @@
         <v>196</v>
       </c>
       <c r="D197" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E197" s="4" t="s">
         <v>19</v>
@@ -9863,7 +9864,7 @@
         <v>197</v>
       </c>
       <c r="D198" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E198" s="4" t="s">
         <v>19</v>
@@ -9887,7 +9888,7 @@
         <v>198</v>
       </c>
       <c r="D199" s="15" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>0</v>
@@ -9915,7 +9916,7 @@
         <v>199</v>
       </c>
       <c r="D200" s="14" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
@@ -9933,7 +9934,7 @@
         <v>200</v>
       </c>
       <c r="D201" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E201" s="4" t="s">
         <v>19</v>
@@ -9957,7 +9958,7 @@
         <v>201</v>
       </c>
       <c r="D202" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E202" s="4" t="s">
         <v>19</v>
@@ -9981,7 +9982,7 @@
         <v>202</v>
       </c>
       <c r="D203" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E203" s="4" t="s">
         <v>616</v>
@@ -9993,7 +9994,7 @@
         <v>56</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
@@ -10007,7 +10008,7 @@
         <v>203</v>
       </c>
       <c r="D204" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E204" s="4" t="s">
         <v>616</v>
@@ -10031,7 +10032,7 @@
         <v>204</v>
       </c>
       <c r="D205" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E205" s="4" t="s">
         <v>619</v>
@@ -10046,7 +10047,7 @@
         <v>2</v>
       </c>
       <c r="I205" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J205" s="4"/>
       <c r="K205" s="4"/>
@@ -10059,7 +10060,7 @@
         <v>205</v>
       </c>
       <c r="D206" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E206" s="4" t="s">
         <v>619</v>
@@ -10083,7 +10084,7 @@
         <v>206</v>
       </c>
       <c r="D207" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E207" s="4" t="s">
         <v>619</v>
@@ -10107,7 +10108,7 @@
         <v>207</v>
       </c>
       <c r="D208" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E208" s="4" t="s">
         <v>271</v>
@@ -10131,7 +10132,7 @@
         <v>208</v>
       </c>
       <c r="D209" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E209" s="4" t="s">
         <v>616</v>
@@ -10143,7 +10144,7 @@
         <v>56</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
@@ -10157,7 +10158,7 @@
         <v>209</v>
       </c>
       <c r="D210" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E210" s="4" t="s">
         <v>616</v>
@@ -10181,7 +10182,7 @@
         <v>210</v>
       </c>
       <c r="D211" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E211" s="4" t="s">
         <v>619</v>
@@ -10190,13 +10191,13 @@
         <v>620</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="H211" s="4">
         <v>2</v>
       </c>
       <c r="I211" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J211" s="4"/>
       <c r="K211" s="4"/>
@@ -10209,7 +10210,7 @@
         <v>211</v>
       </c>
       <c r="D212" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E212" s="4" t="s">
         <v>619</v>
@@ -10233,7 +10234,7 @@
         <v>212</v>
       </c>
       <c r="D213" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E213" s="4" t="s">
         <v>616</v>
@@ -10279,7 +10280,7 @@
         <v>214</v>
       </c>
       <c r="D215" s="18" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
@@ -10297,7 +10298,7 @@
         <v>215</v>
       </c>
       <c r="D216" s="15" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E216" s="4" t="s">
         <v>19</v>
@@ -10321,7 +10322,7 @@
         <v>216</v>
       </c>
       <c r="D217" s="15" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E217" s="4" t="s">
         <v>19</v>
@@ -10336,7 +10337,7 @@
         <v>2</v>
       </c>
       <c r="I217" s="4" t="s">
-        <v>833</v>
+        <v>873</v>
       </c>
       <c r="J217" s="4"/>
       <c r="K217" s="4"/>
@@ -10349,7 +10350,7 @@
         <v>217</v>
       </c>
       <c r="D218" s="15" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E218" s="4" t="s">
         <v>19</v>
@@ -10361,7 +10362,7 @@
         <v>8</v>
       </c>
       <c r="H218" s="4" t="s">
-        <v>840</v>
+        <v>874</v>
       </c>
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
@@ -10375,7 +10376,7 @@
         <v>218</v>
       </c>
       <c r="D219" s="15" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E219" s="4" t="s">
         <v>792</v>
@@ -10397,7 +10398,7 @@
         <v>219</v>
       </c>
       <c r="D220" s="14" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="E220" s="13"/>
       <c r="F220" s="4"/>
@@ -10415,7 +10416,7 @@
         <v>220</v>
       </c>
       <c r="D221" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E221" s="13" t="s">
         <v>19</v>
@@ -10439,7 +10440,7 @@
         <v>221</v>
       </c>
       <c r="D222" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E222" s="13" t="s">
         <v>19</v>
@@ -10463,7 +10464,7 @@
         <v>222</v>
       </c>
       <c r="D223" s="15" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E223" s="4" t="s">
         <v>0</v>
@@ -10473,13 +10474,13 @@
       </c>
       <c r="G223" s="4"/>
       <c r="H223" s="4" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="I223" s="4" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="J223" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="K223" s="4"/>
       <c r="L223" s="4"/>
@@ -10491,17 +10492,17 @@
         <v>223</v>
       </c>
       <c r="D224" s="15" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E224" s="4" t="s">
         <v>572</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="G224" s="4"/>
       <c r="H224" s="4" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="I224" s="13"/>
       <c r="J224" s="4"/>
@@ -10515,7 +10516,7 @@
         <v>224</v>
       </c>
       <c r="D225" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E225" s="4" t="s">
         <v>19</v>
@@ -10539,7 +10540,7 @@
         <v>225</v>
       </c>
       <c r="D226" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E226" s="4" t="s">
         <v>19</v>
@@ -10563,7 +10564,7 @@
         <v>226</v>
       </c>
       <c r="D227" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E227" s="13" t="s">
         <v>235</v>
@@ -10575,7 +10576,7 @@
         <v>56</v>
       </c>
       <c r="H227" s="13" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I227" s="13"/>
       <c r="J227" s="4"/>
@@ -10589,7 +10590,7 @@
         <v>227</v>
       </c>
       <c r="D228" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E228" s="13" t="s">
         <v>235</v>
@@ -10613,7 +10614,7 @@
         <v>228</v>
       </c>
       <c r="D229" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E229" s="13" t="s">
         <v>235</v>
@@ -10625,7 +10626,7 @@
         <v>56</v>
       </c>
       <c r="H229" s="13" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="I229" s="13"/>
       <c r="J229" s="4"/>
@@ -10639,7 +10640,7 @@
         <v>229</v>
       </c>
       <c r="D230" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E230" s="13" t="s">
         <v>235</v>
@@ -10663,7 +10664,7 @@
         <v>230</v>
       </c>
       <c r="D231" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E231" s="13" t="s">
         <v>235</v>
@@ -10675,7 +10676,7 @@
         <v>56</v>
       </c>
       <c r="H231" s="13" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="I231" s="13"/>
       <c r="J231" s="4"/>
@@ -10689,7 +10690,7 @@
         <v>231</v>
       </c>
       <c r="D232" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E232" s="13" t="s">
         <v>235</v>
@@ -10713,13 +10714,13 @@
         <v>232</v>
       </c>
       <c r="D233" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E233" s="13" t="s">
         <v>272</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="G233" s="4" t="s">
         <v>137</v>
@@ -10737,7 +10738,7 @@
         <v>233</v>
       </c>
       <c r="D234" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E234" s="13" t="s">
         <v>272</v>
@@ -10761,7 +10762,7 @@
         <v>234</v>
       </c>
       <c r="D235" s="15" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E235" s="13" t="s">
         <v>235</v>
@@ -10785,7 +10786,7 @@
         <v>235</v>
       </c>
       <c r="D236" s="12" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E236" s="13" t="s">
         <v>19</v>
@@ -10809,7 +10810,7 @@
         <v>236</v>
       </c>
       <c r="D237" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E237" s="13" t="s">
         <v>19</v>
@@ -10833,7 +10834,7 @@
         <v>237</v>
       </c>
       <c r="D238" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E238" s="4" t="s">
         <v>616</v>
@@ -10845,7 +10846,7 @@
         <v>56</v>
       </c>
       <c r="H238" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I238" s="4"/>
       <c r="J238" s="4"/>
@@ -10859,7 +10860,7 @@
         <v>238</v>
       </c>
       <c r="D239" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E239" s="4" t="s">
         <v>616</v>
@@ -10883,7 +10884,7 @@
         <v>239</v>
       </c>
       <c r="D240" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E240" s="4" t="s">
         <v>619</v>
@@ -10898,7 +10899,7 @@
         <v>2</v>
       </c>
       <c r="I240" s="4" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="J240" s="4"/>
       <c r="K240" s="4"/>
@@ -10911,7 +10912,7 @@
         <v>240</v>
       </c>
       <c r="D241" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E241" s="4" t="s">
         <v>619</v>
@@ -10935,7 +10936,7 @@
         <v>241</v>
       </c>
       <c r="D242" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E242" s="4" t="s">
         <v>619</v>
@@ -10959,7 +10960,7 @@
         <v>242</v>
       </c>
       <c r="D243" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E243" s="4" t="s">
         <v>271</v>
@@ -10983,7 +10984,7 @@
         <v>243</v>
       </c>
       <c r="D244" s="12" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E244" s="13" t="s">
         <v>616</v>

--- a/NformTester/NformTester/keywordscripts/TST976_ViewAllDevices.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST976_ViewAllDevices.xlsx
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8032" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8033" uniqueCount="877">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3758,9 +3758,6 @@
     <t>;Delete the device group from All Devices View.</t>
   </si>
   <si>
-    <t>;Check the device has ip, name, address, and type.</t>
-  </si>
-  <si>
     <t>VerifyNotContains</t>
   </si>
   <si>
@@ -3892,13 +3889,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
-  </si>
-  <si>
-    <t>$GXT_0_NAME$</t>
-  </si>
-  <si>
     <t>"10.146.80.100 Description for GXT"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Check the device has ip, name, address, and type.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3945,6 +3956,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3983,10 +3995,11 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4024,12 +4037,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4083,7 +4090,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4128,9 +4135,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4864,8 +4868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E220" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H220" sqref="H220"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4954,7 +4958,7 @@
         <v>754</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -5051,7 +5055,7 @@
         <v>758</v>
       </c>
       <c r="B6" s="6">
-        <v>41061</v>
+        <v>41449</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -5110,9 +5114,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>873</v>
+      </c>
+      <c r="B8" s="5"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>
@@ -5129,7 +5133,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="4"/>
@@ -5141,11 +5145,9 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>762</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
@@ -5171,8 +5173,12 @@
       <c r="O9" s="11"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>762</v>
+      </c>
       <c r="C10" s="4">
         <v>9</v>
       </c>
@@ -5198,10 +5204,8 @@
       <c r="O10" s="11"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="B11" s="10"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
@@ -5226,7 +5230,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="4">
@@ -5257,7 +5261,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="4">
@@ -5288,7 +5292,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="4">
@@ -5319,7 +5323,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="4">
@@ -5350,7 +5354,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="4">
@@ -5378,10 +5382,10 @@
       <c r="O16" s="11"/>
     </row>
     <row r="17" spans="1:15" ht="14.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="10" t="s">
-        <v>769</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B17" s="10"/>
       <c r="C17" s="4">
         <v>16</v>
       </c>
@@ -5409,7 +5413,7 @@
     <row r="18" spans="1:15" ht="14.25">
       <c r="A18" s="2"/>
       <c r="B18" s="10" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
@@ -5427,7 +5431,7 @@
         <v>4</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="4"/>
@@ -5438,11 +5442,9 @@
       <c r="O18" s="11"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="2" t="s">
-        <v>771</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="10" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
@@ -5470,9 +5472,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="B20" s="10"/>
+        <v>771</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>762</v>
+      </c>
       <c r="C20" s="4">
         <v>19</v>
       </c>
@@ -5499,7 +5503,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="4">
@@ -5527,6 +5531,10 @@
       <c r="O21" s="11"/>
     </row>
     <row r="22" spans="1:15">
+      <c r="A22" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B22" s="10"/>
       <c r="C22" s="4">
         <v>21</v>
       </c>
@@ -5537,7 +5545,7 @@
         <v>806</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>2</v>
@@ -5849,7 +5857,7 @@
         <v>795</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -5912,7 +5920,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -5931,7 +5939,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>19</v>
@@ -5956,7 +5964,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>19</v>
@@ -5981,7 +5989,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>235</v>
@@ -6006,7 +6014,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>248</v>
@@ -6033,7 +6041,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>248</v>
@@ -6045,7 +6053,7 @@
         <v>4</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I42" s="13"/>
       <c r="J42" s="4"/>
@@ -6060,7 +6068,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>248</v>
@@ -6072,7 +6080,7 @@
         <v>4</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -6087,7 +6095,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>248</v>
@@ -6099,7 +6107,7 @@
         <v>4</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -6126,7 +6134,7 @@
         <v>4</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -6141,7 +6149,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>248</v>
@@ -6153,7 +6161,7 @@
         <v>4</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="I46" s="13"/>
       <c r="J46" s="4"/>
@@ -6168,7 +6176,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>248</v>
@@ -6180,7 +6188,7 @@
         <v>4</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="I47" s="13"/>
       <c r="J47" s="4"/>
@@ -6195,7 +6203,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>248</v>
@@ -6204,10 +6212,10 @@
         <v>255</v>
       </c>
       <c r="G48" s="13" t="s">
+        <v>847</v>
+      </c>
+      <c r="H48" s="13" t="s">
         <v>848</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>849</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -6222,7 +6230,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>248</v>
@@ -6231,10 +6239,10 @@
         <v>167</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -6249,7 +6257,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>248</v>
@@ -6261,7 +6269,7 @@
         <v>4</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -6276,7 +6284,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>248</v>
@@ -6288,13 +6296,13 @@
         <v>7</v>
       </c>
       <c r="H51" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="J51" s="13" t="s">
         <v>852</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>871</v>
-      </c>
-      <c r="J51" s="13" t="s">
-        <v>853</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -6307,7 +6315,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>248</v>
@@ -6319,7 +6327,7 @@
         <v>13</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I52" s="17"/>
       <c r="J52" s="4"/>
@@ -6334,7 +6342,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>248</v>
@@ -6346,7 +6354,7 @@
         <v>13</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -6361,7 +6369,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>248</v>
@@ -6386,7 +6394,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>248</v>
@@ -6411,7 +6419,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>248</v>
@@ -6436,7 +6444,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>248</v>
@@ -6461,7 +6469,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>248</v>
@@ -6486,7 +6494,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E59" s="13" t="s">
         <v>248</v>
@@ -6536,7 +6544,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>248</v>
@@ -6584,7 +6592,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>235</v>
@@ -6609,7 +6617,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>248</v>
@@ -6636,7 +6644,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>248</v>
@@ -6648,7 +6656,7 @@
         <v>4</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I65" s="13"/>
       <c r="J65" s="4"/>
@@ -6663,7 +6671,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>248</v>
@@ -6675,7 +6683,7 @@
         <v>4</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
@@ -6690,7 +6698,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>248</v>
@@ -6702,7 +6710,7 @@
         <v>4</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
@@ -6729,7 +6737,7 @@
         <v>4</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
@@ -6744,7 +6752,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>248</v>
@@ -6756,7 +6764,7 @@
         <v>4</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="I69" s="13"/>
       <c r="J69" s="4"/>
@@ -6771,7 +6779,7 @@
         <v>69</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>248</v>
@@ -6783,7 +6791,7 @@
         <v>4</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="I70" s="13"/>
       <c r="J70" s="4"/>
@@ -6798,7 +6806,7 @@
         <v>70</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E71" s="13" t="s">
         <v>248</v>
@@ -6807,10 +6815,10 @@
         <v>255</v>
       </c>
       <c r="G71" s="13" t="s">
+        <v>847</v>
+      </c>
+      <c r="H71" s="13" t="s">
         <v>848</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>849</v>
       </c>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
@@ -6825,7 +6833,7 @@
         <v>71</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>248</v>
@@ -6834,10 +6842,10 @@
         <v>167</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
@@ -6852,7 +6860,7 @@
         <v>72</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>248</v>
@@ -6864,7 +6872,7 @@
         <v>4</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
@@ -6879,7 +6887,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E74" s="13" t="s">
         <v>248</v>
@@ -6891,13 +6899,13 @@
         <v>7</v>
       </c>
       <c r="H74" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="J74" s="13" t="s">
         <v>852</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>871</v>
-      </c>
-      <c r="J74" s="13" t="s">
-        <v>853</v>
       </c>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
@@ -6910,7 +6918,7 @@
         <v>74</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>248</v>
@@ -6922,7 +6930,7 @@
         <v>13</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I75" s="17"/>
       <c r="J75" s="4"/>
@@ -6937,7 +6945,7 @@
         <v>75</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E76" s="13" t="s">
         <v>248</v>
@@ -6949,7 +6957,7 @@
         <v>13</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
@@ -6964,7 +6972,7 @@
         <v>76</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E77" s="13" t="s">
         <v>248</v>
@@ -6989,7 +6997,7 @@
         <v>77</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E78" s="13" t="s">
         <v>248</v>
@@ -7014,7 +7022,7 @@
         <v>78</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E79" s="13" t="s">
         <v>248</v>
@@ -7039,7 +7047,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E80" s="13" t="s">
         <v>248</v>
@@ -7064,7 +7072,7 @@
         <v>80</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E81" s="13" t="s">
         <v>248</v>
@@ -7089,7 +7097,7 @@
         <v>81</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E82" s="13" t="s">
         <v>248</v>
@@ -7139,7 +7147,7 @@
         <v>83</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E84" s="13" t="s">
         <v>248</v>
@@ -7218,7 +7226,7 @@
         <v>86</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>235</v>
@@ -7230,7 +7238,7 @@
         <v>56</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="I87" s="13"/>
       <c r="J87" s="4"/>
@@ -7245,7 +7253,7 @@
         <v>87</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E88" s="13" t="s">
         <v>235</v>
@@ -7270,7 +7278,7 @@
         <v>88</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E89" s="13" t="s">
         <v>272</v>
@@ -7295,7 +7303,7 @@
         <v>89</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E90" s="13" t="s">
         <v>272</v>
@@ -7593,7 +7601,7 @@
         <v>817</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J102" s="4" t="s">
         <v>818</v>
@@ -8239,7 +8247,7 @@
         <v>2</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
@@ -10191,7 +10199,7 @@
         <v>620</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H211" s="4">
         <v>2</v>
@@ -10279,8 +10287,8 @@
       <c r="C215" s="4">
         <v>214</v>
       </c>
-      <c r="D215" s="18" t="s">
-        <v>837</v>
+      <c r="D215" s="14" t="s">
+        <v>872</v>
       </c>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
@@ -10298,7 +10306,7 @@
         <v>215</v>
       </c>
       <c r="D216" s="15" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E216" s="4" t="s">
         <v>19</v>
@@ -10322,7 +10330,7 @@
         <v>216</v>
       </c>
       <c r="D217" s="15" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E217" s="4" t="s">
         <v>19</v>
@@ -10337,7 +10345,7 @@
         <v>2</v>
       </c>
       <c r="I217" s="4" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="J217" s="4"/>
       <c r="K217" s="4"/>
@@ -10350,7 +10358,7 @@
         <v>217</v>
       </c>
       <c r="D218" s="15" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E218" s="4" t="s">
         <v>19</v>
@@ -10362,7 +10370,7 @@
         <v>8</v>
       </c>
       <c r="H218" s="4" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
@@ -10376,7 +10384,7 @@
         <v>218</v>
       </c>
       <c r="D219" s="15" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E219" s="4" t="s">
         <v>792</v>
@@ -10398,7 +10406,7 @@
         <v>219</v>
       </c>
       <c r="D220" s="14" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E220" s="13"/>
       <c r="F220" s="4"/>
@@ -10416,7 +10424,7 @@
         <v>220</v>
       </c>
       <c r="D221" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E221" s="13" t="s">
         <v>19</v>
@@ -10440,7 +10448,7 @@
         <v>221</v>
       </c>
       <c r="D222" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E222" s="13" t="s">
         <v>19</v>
@@ -10464,7 +10472,7 @@
         <v>222</v>
       </c>
       <c r="D223" s="15" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E223" s="4" t="s">
         <v>0</v>
@@ -10474,10 +10482,10 @@
       </c>
       <c r="G223" s="4"/>
       <c r="H223" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="I223" s="4" t="s">
         <v>859</v>
-      </c>
-      <c r="I223" s="4" t="s">
-        <v>860</v>
       </c>
       <c r="J223" s="4" t="s">
         <v>823</v>
@@ -10492,17 +10500,17 @@
         <v>223</v>
       </c>
       <c r="D224" s="15" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E224" s="4" t="s">
         <v>572</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G224" s="4"/>
       <c r="H224" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="I224" s="13"/>
       <c r="J224" s="4"/>
@@ -10516,7 +10524,7 @@
         <v>224</v>
       </c>
       <c r="D225" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E225" s="4" t="s">
         <v>19</v>
@@ -10540,7 +10548,7 @@
         <v>225</v>
       </c>
       <c r="D226" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E226" s="4" t="s">
         <v>19</v>
@@ -10564,7 +10572,7 @@
         <v>226</v>
       </c>
       <c r="D227" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E227" s="13" t="s">
         <v>235</v>
@@ -10576,7 +10584,7 @@
         <v>56</v>
       </c>
       <c r="H227" s="13" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="I227" s="13"/>
       <c r="J227" s="4"/>
@@ -10590,7 +10598,7 @@
         <v>227</v>
       </c>
       <c r="D228" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E228" s="13" t="s">
         <v>235</v>
@@ -10614,7 +10622,7 @@
         <v>228</v>
       </c>
       <c r="D229" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E229" s="13" t="s">
         <v>235</v>
@@ -10626,7 +10634,7 @@
         <v>56</v>
       </c>
       <c r="H229" s="13" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="I229" s="13"/>
       <c r="J229" s="4"/>
@@ -10640,7 +10648,7 @@
         <v>229</v>
       </c>
       <c r="D230" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E230" s="13" t="s">
         <v>235</v>
@@ -10664,7 +10672,7 @@
         <v>230</v>
       </c>
       <c r="D231" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E231" s="13" t="s">
         <v>235</v>
@@ -10676,7 +10684,7 @@
         <v>56</v>
       </c>
       <c r="H231" s="13" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I231" s="13"/>
       <c r="J231" s="4"/>
@@ -10690,7 +10698,7 @@
         <v>231</v>
       </c>
       <c r="D232" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E232" s="13" t="s">
         <v>235</v>
@@ -10714,13 +10722,13 @@
         <v>232</v>
       </c>
       <c r="D233" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E233" s="13" t="s">
         <v>272</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G233" s="4" t="s">
         <v>137</v>
@@ -10738,7 +10746,7 @@
         <v>233</v>
       </c>
       <c r="D234" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E234" s="13" t="s">
         <v>272</v>
@@ -10762,7 +10770,7 @@
         <v>234</v>
       </c>
       <c r="D235" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E235" s="13" t="s">
         <v>235</v>
@@ -10899,7 +10907,7 @@
         <v>2</v>
       </c>
       <c r="I240" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="J240" s="4"/>
       <c r="K240" s="4"/>
@@ -11034,6 +11042,7 @@
     <hyperlink ref="H70" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/NformTester/NformTester/keywordscripts/TST976_ViewAllDevices.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST976_ViewAllDevices.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="30" windowWidth="8355" windowHeight="7800"/>
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8033" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8039" uniqueCount="877">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4866,10 +4866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O244"/>
+  <dimension ref="A1:O247"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5086,7 +5086,7 @@
         <v>759</v>
       </c>
       <c r="B7" s="3">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -8456,17 +8456,15 @@
         <v>137</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>815</v>
+        <v>791</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G138" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="F138" s="4">
+        <v>5</v>
+      </c>
+      <c r="G138" s="4"/>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
@@ -8483,17 +8481,15 @@
         <v>815</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>620</v>
+        <v>168</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H139" s="4" t="s">
-        <v>826</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H139" s="4"/>
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
@@ -8518,7 +8514,7 @@
         <v>5</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
@@ -8538,12 +8534,14 @@
         <v>619</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>95</v>
+        <v>620</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H141" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>828</v>
+      </c>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
@@ -8559,7 +8557,7 @@
         <v>815</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>95</v>
@@ -8575,16 +8573,22 @@
       <c r="M142" s="4"/>
       <c r="N142" s="16"/>
     </row>
-    <row r="143" spans="3:14" ht="15">
+    <row r="143" spans="3:14">
       <c r="C143" s="4">
         <v>142</v>
       </c>
-      <c r="D143" s="14" t="s">
-        <v>830</v>
-      </c>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
+      <c r="D143" s="15" t="s">
+        <v>815</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
@@ -8593,22 +8597,16 @@
       <c r="M143" s="4"/>
       <c r="N143" s="16"/>
     </row>
-    <row r="144" spans="3:14">
+    <row r="144" spans="3:14" ht="15">
       <c r="C144" s="4">
         <v>143</v>
       </c>
-      <c r="D144" s="15" t="s">
-        <v>815</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D144" s="14" t="s">
+        <v>830</v>
+      </c>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
@@ -8628,7 +8626,7 @@
         <v>19</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>2</v>
@@ -8649,17 +8647,15 @@
         <v>815</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>616</v>
+        <v>19</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>617</v>
+        <v>76</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H146" s="4" t="s">
-        <v>831</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H146" s="4"/>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
@@ -8678,12 +8674,14 @@
         <v>616</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>168</v>
+        <v>617</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H147" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>831</v>
+      </c>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
@@ -8696,23 +8694,17 @@
         <v>147</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>815</v>
+        <v>791</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H148" s="4">
-        <v>2</v>
-      </c>
-      <c r="I148" s="4" t="s">
-        <v>826</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="F148" s="4">
+        <v>5</v>
+      </c>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
       <c r="L148" s="4"/>
@@ -8727,10 +8719,10 @@
         <v>815</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>624</v>
+        <v>168</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>2</v>
@@ -8748,17 +8740,23 @@
         <v>149</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>791</v>
+        <v>815</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="F150" s="4">
-        <v>5</v>
-      </c>
-      <c r="G150" s="4"/>
-      <c r="H150" s="4"/>
-      <c r="I150" s="4"/>
+        <v>619</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H150" s="4">
+        <v>2</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>826</v>
+      </c>
       <c r="J150" s="4"/>
       <c r="K150" s="4"/>
       <c r="L150" s="4"/>
@@ -8776,7 +8774,7 @@
         <v>619</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G151" s="4" t="s">
         <v>2</v>
@@ -8794,17 +8792,15 @@
         <v>151</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>815</v>
+        <v>791</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="G152" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="F152" s="4">
+        <v>5</v>
+      </c>
+      <c r="G152" s="4"/>
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
@@ -8818,15 +8814,17 @@
         <v>152</v>
       </c>
       <c r="D153" s="15" t="s">
-        <v>791</v>
+        <v>815</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="F153" s="4">
-        <v>6</v>
-      </c>
-      <c r="G153" s="4"/>
+        <v>619</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
@@ -8846,7 +8844,7 @@
         <v>619</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>17</v>
+        <v>625</v>
       </c>
       <c r="G154" s="4" t="s">
         <v>2</v>
@@ -8864,17 +8862,15 @@
         <v>154</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>815</v>
+        <v>791</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="F155" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G155" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="F155" s="4">
+        <v>6</v>
+      </c>
+      <c r="G155" s="4"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
@@ -8891,10 +8887,10 @@
         <v>815</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>2</v>
@@ -8912,15 +8908,17 @@
         <v>156</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>791</v>
+        <v>815</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="F157" s="4">
-        <v>1</v>
-      </c>
-      <c r="G157" s="4"/>
+        <v>271</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
@@ -8929,16 +8927,22 @@
       <c r="M157" s="4"/>
       <c r="N157" s="16"/>
     </row>
-    <row r="158" spans="3:14" ht="15">
+    <row r="158" spans="3:14">
       <c r="C158" s="4">
         <v>157</v>
       </c>
-      <c r="D158" s="14" t="s">
-        <v>832</v>
-      </c>
-      <c r="E158" s="4"/>
-      <c r="F158" s="4"/>
-      <c r="G158" s="4"/>
+      <c r="D158" s="15" t="s">
+        <v>815</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
@@ -8952,17 +8956,15 @@
         <v>158</v>
       </c>
       <c r="D159" s="15" t="s">
-        <v>815</v>
+        <v>791</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G159" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="F159" s="4">
+        <v>1</v>
+      </c>
+      <c r="G159" s="4"/>
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
@@ -8971,22 +8973,16 @@
       <c r="M159" s="4"/>
       <c r="N159" s="16"/>
     </row>
-    <row r="160" spans="3:14">
+    <row r="160" spans="3:14" ht="15">
       <c r="C160" s="4">
         <v>159</v>
       </c>
-      <c r="D160" s="15" t="s">
-        <v>815</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F160" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G160" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D160" s="14" t="s">
+        <v>832</v>
+      </c>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
@@ -9000,39 +8996,41 @@
         <v>160</v>
       </c>
       <c r="D161" s="15" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="G161" s="4"/>
-      <c r="H161" s="4" t="s">
-        <v>821</v>
-      </c>
-      <c r="I161" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="J161" s="4" t="s">
-        <v>823</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H161" s="4"/>
+      <c r="I161" s="4"/>
+      <c r="J161" s="4"/>
       <c r="K161" s="4"/>
       <c r="L161" s="4"/>
       <c r="M161" s="4"/>
       <c r="N161" s="16"/>
     </row>
-    <row r="162" spans="3:14" ht="15">
+    <row r="162" spans="3:14">
       <c r="C162" s="4">
         <v>161</v>
       </c>
-      <c r="D162" s="14" t="s">
-        <v>833</v>
-      </c>
-      <c r="E162" s="4"/>
-      <c r="F162" s="4"/>
-      <c r="G162" s="4"/>
+      <c r="D162" s="15" t="s">
+        <v>815</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
@@ -9046,41 +9044,39 @@
         <v>162</v>
       </c>
       <c r="D163" s="15" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G163" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H163" s="4"/>
-      <c r="I163" s="4"/>
-      <c r="J163" s="4"/>
+        <v>797</v>
+      </c>
+      <c r="G163" s="4"/>
+      <c r="H163" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="I163" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="J163" s="4" t="s">
+        <v>823</v>
+      </c>
       <c r="K163" s="4"/>
       <c r="L163" s="4"/>
       <c r="M163" s="4"/>
       <c r="N163" s="16"/>
     </row>
-    <row r="164" spans="3:14">
+    <row r="164" spans="3:14" ht="15">
       <c r="C164" s="4">
         <v>163</v>
       </c>
-      <c r="D164" s="15" t="s">
-        <v>815</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G164" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D164" s="14" t="s">
+        <v>833</v>
+      </c>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
@@ -9097,17 +9093,15 @@
         <v>815</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>616</v>
+        <v>19</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>617</v>
+        <v>22</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H165" s="4" t="s">
-        <v>831</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H165" s="4"/>
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
       <c r="K165" s="4"/>
@@ -9123,10 +9117,10 @@
         <v>815</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>616</v>
+        <v>19</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="G166" s="4" t="s">
         <v>2</v>
@@ -9147,20 +9141,18 @@
         <v>815</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G167" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H167" s="4">
-        <v>2</v>
-      </c>
-      <c r="I167" s="4" t="s">
-        <v>826</v>
-      </c>
+      <c r="H167" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="I167" s="4"/>
       <c r="J167" s="4"/>
       <c r="K167" s="4"/>
       <c r="L167" s="4"/>
@@ -9172,17 +9164,15 @@
         <v>167</v>
       </c>
       <c r="D168" s="15" t="s">
-        <v>815</v>
+        <v>791</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="G168" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="F168" s="4">
+        <v>5</v>
+      </c>
+      <c r="G168" s="4"/>
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
@@ -9199,10 +9189,10 @@
         <v>815</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>624</v>
+        <v>168</v>
       </c>
       <c r="G169" s="4" t="s">
         <v>2</v>
@@ -9220,17 +9210,23 @@
         <v>169</v>
       </c>
       <c r="D170" s="15" t="s">
-        <v>791</v>
+        <v>815</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="F170" s="4">
-        <v>5</v>
-      </c>
-      <c r="G170" s="4"/>
-      <c r="H170" s="4"/>
-      <c r="I170" s="4"/>
+        <v>619</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H170" s="4">
+        <v>2</v>
+      </c>
+      <c r="I170" s="4" t="s">
+        <v>826</v>
+      </c>
       <c r="J170" s="4"/>
       <c r="K170" s="4"/>
       <c r="L170" s="4"/>
@@ -9248,7 +9244,7 @@
         <v>619</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G171" s="4" t="s">
         <v>2</v>
@@ -9266,15 +9262,17 @@
         <v>171</v>
       </c>
       <c r="D172" s="15" t="s">
-        <v>791</v>
+        <v>815</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="F172" s="4">
-        <v>5</v>
-      </c>
-      <c r="G172" s="4"/>
+        <v>619</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
@@ -9288,17 +9286,15 @@
         <v>172</v>
       </c>
       <c r="D173" s="15" t="s">
-        <v>815</v>
+        <v>791</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G173" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="F173" s="4">
+        <v>5</v>
+      </c>
+      <c r="G173" s="4"/>
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
@@ -9315,10 +9311,10 @@
         <v>815</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>271</v>
+        <v>619</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>17</v>
+        <v>625</v>
       </c>
       <c r="G174" s="4" t="s">
         <v>2</v>
@@ -9336,17 +9332,15 @@
         <v>174</v>
       </c>
       <c r="D175" s="15" t="s">
-        <v>815</v>
+        <v>791</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="F175" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G175" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="F175" s="4">
+        <v>5</v>
+      </c>
+      <c r="G175" s="4"/>
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
@@ -9360,15 +9354,17 @@
         <v>175</v>
       </c>
       <c r="D176" s="15" t="s">
-        <v>791</v>
+        <v>815</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="F176" s="4">
-        <v>5</v>
-      </c>
-      <c r="G176" s="4"/>
+        <v>619</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
@@ -9377,16 +9373,22 @@
       <c r="M176" s="4"/>
       <c r="N176" s="16"/>
     </row>
-    <row r="177" spans="3:14" ht="15">
+    <row r="177" spans="3:14">
       <c r="C177" s="4">
         <v>176</v>
       </c>
-      <c r="D177" s="14" t="s">
-        <v>834</v>
-      </c>
-      <c r="E177" s="4"/>
-      <c r="F177" s="4"/>
-      <c r="G177" s="4"/>
+      <c r="D177" s="15" t="s">
+        <v>815</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
@@ -9403,10 +9405,10 @@
         <v>815</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>19</v>
+        <v>616</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="G178" s="4" t="s">
         <v>2</v>
@@ -9424,17 +9426,15 @@
         <v>178</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>815</v>
+        <v>791</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F179" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G179" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="F179" s="4">
+        <v>5</v>
+      </c>
+      <c r="G179" s="4"/>
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
@@ -9443,44 +9443,40 @@
       <c r="M179" s="4"/>
       <c r="N179" s="16"/>
     </row>
-    <row r="180" spans="3:14">
+    <row r="180" spans="3:14" ht="15">
       <c r="C180" s="4">
         <v>179</v>
       </c>
-      <c r="D180" s="15" t="s">
-        <v>820</v>
-      </c>
-      <c r="E180" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F180" s="4" t="s">
-        <v>797</v>
-      </c>
+      <c r="D180" s="14" t="s">
+        <v>834</v>
+      </c>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
       <c r="G180" s="4"/>
-      <c r="H180" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="I180" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="J180" s="4" t="s">
-        <v>823</v>
-      </c>
+      <c r="H180" s="4"/>
+      <c r="I180" s="4"/>
+      <c r="J180" s="4"/>
       <c r="K180" s="4"/>
       <c r="L180" s="4"/>
       <c r="M180" s="4"/>
       <c r="N180" s="16"/>
     </row>
-    <row r="181" spans="3:14" ht="15">
+    <row r="181" spans="3:14">
       <c r="C181" s="4">
         <v>180</v>
       </c>
-      <c r="D181" s="14" t="s">
-        <v>833</v>
-      </c>
-      <c r="E181" s="4"/>
-      <c r="F181" s="4"/>
-      <c r="G181" s="4"/>
+      <c r="D181" s="15" t="s">
+        <v>815</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
@@ -9500,7 +9496,7 @@
         <v>19</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G182" s="4" t="s">
         <v>2</v>
@@ -9518,44 +9514,40 @@
         <v>182</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G183" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H183" s="4"/>
-      <c r="I183" s="4"/>
-      <c r="J183" s="4"/>
+        <v>797</v>
+      </c>
+      <c r="G183" s="4"/>
+      <c r="H183" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="I183" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="J183" s="4" t="s">
+        <v>823</v>
+      </c>
       <c r="K183" s="4"/>
       <c r="L183" s="4"/>
       <c r="M183" s="4"/>
       <c r="N183" s="16"/>
     </row>
-    <row r="184" spans="3:14">
+    <row r="184" spans="3:14" ht="15">
       <c r="C184" s="4">
         <v>183</v>
       </c>
-      <c r="D184" s="15" t="s">
-        <v>815</v>
-      </c>
-      <c r="E184" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="F184" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="G184" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H184" s="4" t="s">
-        <v>831</v>
-      </c>
+      <c r="D184" s="14" t="s">
+        <v>833</v>
+      </c>
+      <c r="E184" s="4"/>
+      <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
+      <c r="H184" s="4"/>
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
       <c r="K184" s="4"/>
@@ -9571,10 +9563,10 @@
         <v>815</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>616</v>
+        <v>19</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="G185" s="4" t="s">
         <v>2</v>
@@ -9595,20 +9587,16 @@
         <v>815</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>619</v>
+        <v>19</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>620</v>
+        <v>76</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H186" s="4">
-        <v>2</v>
-      </c>
-      <c r="I186" s="4" t="s">
-        <v>826</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H186" s="4"/>
+      <c r="I186" s="4"/>
       <c r="J186" s="4"/>
       <c r="K186" s="4"/>
       <c r="L186" s="4"/>
@@ -9623,15 +9611,17 @@
         <v>815</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H187" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H187" s="4" t="s">
+        <v>831</v>
+      </c>
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
       <c r="K187" s="4"/>
@@ -9644,15 +9634,17 @@
         <v>187</v>
       </c>
       <c r="D188" s="15" t="s">
-        <v>791</v>
+        <v>815</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="F188" s="4">
-        <v>5</v>
-      </c>
-      <c r="G188" s="4"/>
+        <v>616</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
@@ -9666,19 +9658,23 @@
         <v>188</v>
       </c>
       <c r="D189" s="15" t="s">
-        <v>791</v>
+        <v>815</v>
       </c>
       <c r="E189" s="4" t="s">
         <v>619</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H189" s="4"/>
-      <c r="I189" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H189" s="4">
+        <v>2</v>
+      </c>
+      <c r="I189" s="4" t="s">
+        <v>826</v>
+      </c>
       <c r="J189" s="4"/>
       <c r="K189" s="4"/>
       <c r="L189" s="4"/>
@@ -9696,7 +9692,7 @@
         <v>619</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G190" s="4" t="s">
         <v>2</v>
@@ -9736,13 +9732,13 @@
         <v>191</v>
       </c>
       <c r="D192" s="15" t="s">
-        <v>815</v>
+        <v>791</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>619</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>17</v>
+        <v>625</v>
       </c>
       <c r="G192" s="4" t="s">
         <v>2</v>
@@ -9763,10 +9759,10 @@
         <v>815</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>271</v>
+        <v>619</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>17</v>
+        <v>625</v>
       </c>
       <c r="G193" s="4" t="s">
         <v>2</v>
@@ -9784,17 +9780,15 @@
         <v>193</v>
       </c>
       <c r="D194" s="15" t="s">
-        <v>815</v>
+        <v>791</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="F194" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G194" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="F194" s="4">
+        <v>5</v>
+      </c>
+      <c r="G194" s="4"/>
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
       <c r="J194" s="4"/>
@@ -9808,15 +9802,17 @@
         <v>194</v>
       </c>
       <c r="D195" s="15" t="s">
-        <v>791</v>
+        <v>815</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="F195" s="4">
-        <v>5</v>
-      </c>
-      <c r="G195" s="4"/>
+        <v>619</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
       <c r="J195" s="4"/>
@@ -9825,16 +9821,22 @@
       <c r="M195" s="4"/>
       <c r="N195" s="16"/>
     </row>
-    <row r="196" spans="3:14" ht="15">
+    <row r="196" spans="3:14">
       <c r="C196" s="4">
         <v>195</v>
       </c>
-      <c r="D196" s="14" t="s">
-        <v>824</v>
-      </c>
-      <c r="E196" s="14"/>
-      <c r="F196" s="4"/>
-      <c r="G196" s="4"/>
+      <c r="D196" s="15" t="s">
+        <v>815</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
       <c r="J196" s="4"/>
@@ -9851,10 +9853,10 @@
         <v>815</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>19</v>
+        <v>616</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="G197" s="4" t="s">
         <v>2</v>
@@ -9872,17 +9874,15 @@
         <v>197</v>
       </c>
       <c r="D198" s="15" t="s">
-        <v>815</v>
+        <v>791</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F198" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G198" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="F198" s="4">
+        <v>5</v>
+      </c>
+      <c r="G198" s="4"/>
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
       <c r="J198" s="4"/>
@@ -9891,44 +9891,40 @@
       <c r="M198" s="4"/>
       <c r="N198" s="16"/>
     </row>
-    <row r="199" spans="3:14">
+    <row r="199" spans="3:14" ht="15">
       <c r="C199" s="4">
         <v>198</v>
       </c>
-      <c r="D199" s="15" t="s">
-        <v>820</v>
-      </c>
-      <c r="E199" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F199" s="4" t="s">
-        <v>797</v>
-      </c>
+      <c r="D199" s="14" t="s">
+        <v>824</v>
+      </c>
+      <c r="E199" s="14"/>
+      <c r="F199" s="4"/>
       <c r="G199" s="4"/>
-      <c r="H199" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="I199" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="J199" s="4" t="s">
-        <v>799</v>
-      </c>
+      <c r="H199" s="4"/>
+      <c r="I199" s="4"/>
+      <c r="J199" s="4"/>
       <c r="K199" s="4"/>
       <c r="L199" s="4"/>
       <c r="M199" s="4"/>
       <c r="N199" s="16"/>
     </row>
-    <row r="200" spans="3:14" ht="15">
+    <row r="200" spans="3:14">
       <c r="C200" s="4">
         <v>199</v>
       </c>
-      <c r="D200" s="14" t="s">
-        <v>836</v>
-      </c>
-      <c r="E200" s="4"/>
-      <c r="F200" s="4"/>
-      <c r="G200" s="4"/>
+      <c r="D200" s="15" t="s">
+        <v>815</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
@@ -9948,7 +9944,7 @@
         <v>19</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G201" s="4" t="s">
         <v>2</v>
@@ -9966,44 +9962,40 @@
         <v>201</v>
       </c>
       <c r="D202" s="15" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G202" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H202" s="4"/>
-      <c r="I202" s="4"/>
-      <c r="J202" s="4"/>
+        <v>797</v>
+      </c>
+      <c r="G202" s="4"/>
+      <c r="H202" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="I202" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="J202" s="4" t="s">
+        <v>799</v>
+      </c>
       <c r="K202" s="4"/>
       <c r="L202" s="4"/>
       <c r="M202" s="4"/>
       <c r="N202" s="16"/>
     </row>
-    <row r="203" spans="3:14">
+    <row r="203" spans="3:14" ht="15">
       <c r="C203" s="4">
         <v>202</v>
       </c>
-      <c r="D203" s="15" t="s">
-        <v>815</v>
-      </c>
-      <c r="E203" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="F203" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="G203" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H203" s="4" t="s">
-        <v>831</v>
-      </c>
+      <c r="D203" s="14" t="s">
+        <v>836</v>
+      </c>
+      <c r="E203" s="4"/>
+      <c r="F203" s="4"/>
+      <c r="G203" s="4"/>
+      <c r="H203" s="4"/>
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
       <c r="K203" s="4"/>
@@ -10019,10 +10011,10 @@
         <v>815</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>616</v>
+        <v>19</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="G204" s="4" t="s">
         <v>2</v>
@@ -10043,20 +10035,16 @@
         <v>815</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>619</v>
+        <v>19</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>620</v>
+        <v>76</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H205" s="4">
-        <v>2</v>
-      </c>
-      <c r="I205" s="4" t="s">
-        <v>826</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H205" s="4"/>
+      <c r="I205" s="4"/>
       <c r="J205" s="4"/>
       <c r="K205" s="4"/>
       <c r="L205" s="4"/>
@@ -10071,15 +10059,17 @@
         <v>815</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>178</v>
+        <v>617</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H206" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H206" s="4" t="s">
+        <v>831</v>
+      </c>
       <c r="I206" s="4"/>
       <c r="J206" s="4"/>
       <c r="K206" s="4"/>
@@ -10095,10 +10085,10 @@
         <v>815</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="G207" s="4" t="s">
         <v>2</v>
@@ -10119,16 +10109,20 @@
         <v>815</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>271</v>
+        <v>619</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>17</v>
+        <v>620</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H208" s="4"/>
-      <c r="I208" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H208" s="4">
+        <v>2</v>
+      </c>
+      <c r="I208" s="4" t="s">
+        <v>826</v>
+      </c>
       <c r="J208" s="4"/>
       <c r="K208" s="4"/>
       <c r="L208" s="4"/>
@@ -10143,17 +10137,15 @@
         <v>815</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>617</v>
+        <v>178</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H209" s="4" t="s">
-        <v>831</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H209" s="4"/>
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
       <c r="K209" s="4"/>
@@ -10169,10 +10161,10 @@
         <v>815</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="G210" s="4" t="s">
         <v>2</v>
@@ -10193,20 +10185,16 @@
         <v>815</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>619</v>
+        <v>271</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>620</v>
+        <v>17</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>837</v>
-      </c>
-      <c r="H211" s="4">
-        <v>2</v>
-      </c>
-      <c r="I211" s="4" t="s">
-        <v>826</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H211" s="4"/>
+      <c r="I211" s="4"/>
       <c r="J211" s="4"/>
       <c r="K211" s="4"/>
       <c r="L211" s="4"/>
@@ -10221,15 +10209,17 @@
         <v>815</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>95</v>
+        <v>617</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H212" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H212" s="4" t="s">
+        <v>831</v>
+      </c>
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
       <c r="K212" s="4"/>
@@ -10248,7 +10238,7 @@
         <v>616</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="G213" s="4" t="s">
         <v>2</v>
@@ -10266,33 +10256,45 @@
         <v>213</v>
       </c>
       <c r="D214" s="15" t="s">
-        <v>791</v>
+        <v>815</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="F214" s="4">
-        <v>5</v>
-      </c>
-      <c r="G214" s="4"/>
-      <c r="H214" s="4"/>
-      <c r="I214" s="4"/>
+        <v>619</v>
+      </c>
+      <c r="F214" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="G214" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="H214" s="4">
+        <v>2</v>
+      </c>
+      <c r="I214" s="4" t="s">
+        <v>826</v>
+      </c>
       <c r="J214" s="4"/>
       <c r="K214" s="4"/>
       <c r="L214" s="4"/>
       <c r="M214" s="4"/>
       <c r="N214" s="16"/>
     </row>
-    <row r="215" spans="3:14" ht="15">
+    <row r="215" spans="3:14">
       <c r="C215" s="4">
         <v>214</v>
       </c>
-      <c r="D215" s="14" t="s">
-        <v>872</v>
-      </c>
-      <c r="E215" s="4"/>
-      <c r="F215" s="4"/>
-      <c r="G215" s="4"/>
+      <c r="D215" s="15" t="s">
+        <v>815</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G215" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H215" s="4"/>
       <c r="I215" s="4"/>
       <c r="J215" s="4"/>
@@ -10306,13 +10308,13 @@
         <v>215</v>
       </c>
       <c r="D216" s="15" t="s">
-        <v>838</v>
+        <v>815</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>19</v>
+        <v>616</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="G216" s="4" t="s">
         <v>2</v>
@@ -10330,48 +10332,34 @@
         <v>216</v>
       </c>
       <c r="D217" s="15" t="s">
-        <v>838</v>
+        <v>791</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F217" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G217" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H217" s="4">
-        <v>2</v>
-      </c>
-      <c r="I217" s="4" t="s">
-        <v>875</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="F217" s="4">
+        <v>5</v>
+      </c>
+      <c r="G217" s="4"/>
+      <c r="H217" s="4"/>
+      <c r="I217" s="4"/>
       <c r="J217" s="4"/>
       <c r="K217" s="4"/>
       <c r="L217" s="4"/>
       <c r="M217" s="4"/>
       <c r="N217" s="16"/>
     </row>
-    <row r="218" spans="3:14">
+    <row r="218" spans="3:14" ht="15">
       <c r="C218" s="4">
         <v>217</v>
       </c>
-      <c r="D218" s="15" t="s">
-        <v>838</v>
-      </c>
-      <c r="E218" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F218" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G218" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H218" s="4" t="s">
-        <v>871</v>
-      </c>
+      <c r="D218" s="14" t="s">
+        <v>872</v>
+      </c>
+      <c r="E218" s="4"/>
+      <c r="F218" s="4"/>
+      <c r="G218" s="4"/>
+      <c r="H218" s="4"/>
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
       <c r="K218" s="4"/>
@@ -10387,12 +10375,14 @@
         <v>838</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="F219" s="4">
-        <v>5</v>
-      </c>
-      <c r="G219" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F219" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G219" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
@@ -10401,18 +10391,28 @@
       <c r="M219" s="4"/>
       <c r="N219" s="16"/>
     </row>
-    <row r="220" spans="3:14" ht="15">
+    <row r="220" spans="3:14">
       <c r="C220" s="4">
         <v>219</v>
       </c>
-      <c r="D220" s="14" t="s">
-        <v>856</v>
-      </c>
-      <c r="E220" s="13"/>
-      <c r="F220" s="4"/>
-      <c r="G220" s="4"/>
-      <c r="H220" s="13"/>
-      <c r="I220" s="13"/>
+      <c r="D220" s="15" t="s">
+        <v>838</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F220" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G220" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H220" s="4">
+        <v>2</v>
+      </c>
+      <c r="I220" s="4" t="s">
+        <v>875</v>
+      </c>
       <c r="J220" s="4"/>
       <c r="K220" s="4"/>
       <c r="L220" s="4"/>
@@ -10424,18 +10424,20 @@
         <v>220</v>
       </c>
       <c r="D221" s="15" t="s">
-        <v>841</v>
-      </c>
-      <c r="E221" s="13" t="s">
+        <v>838</v>
+      </c>
+      <c r="E221" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H221" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="H221" s="4" t="s">
+        <v>871</v>
+      </c>
       <c r="I221" s="4"/>
       <c r="J221" s="4"/>
       <c r="K221" s="4"/>
@@ -10448,48 +10450,36 @@
         <v>221</v>
       </c>
       <c r="D222" s="15" t="s">
-        <v>841</v>
-      </c>
-      <c r="E222" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F222" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G222" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H222" s="13"/>
-      <c r="I222" s="13"/>
+        <v>838</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="F222" s="4">
+        <v>5</v>
+      </c>
+      <c r="G222" s="4"/>
+      <c r="H222" s="4"/>
+      <c r="I222" s="4"/>
       <c r="J222" s="4"/>
       <c r="K222" s="4"/>
       <c r="L222" s="4"/>
       <c r="M222" s="4"/>
       <c r="N222" s="16"/>
     </row>
-    <row r="223" spans="3:14">
+    <row r="223" spans="3:14" ht="15">
       <c r="C223" s="4">
         <v>222</v>
       </c>
-      <c r="D223" s="15" t="s">
-        <v>857</v>
-      </c>
-      <c r="E223" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F223" s="4" t="s">
-        <v>797</v>
-      </c>
+      <c r="D223" s="14" t="s">
+        <v>856</v>
+      </c>
+      <c r="E223" s="13"/>
+      <c r="F223" s="4"/>
       <c r="G223" s="4"/>
-      <c r="H223" s="4" t="s">
-        <v>858</v>
-      </c>
-      <c r="I223" s="4" t="s">
-        <v>859</v>
-      </c>
-      <c r="J223" s="4" t="s">
-        <v>823</v>
-      </c>
+      <c r="H223" s="13"/>
+      <c r="I223" s="13"/>
+      <c r="J223" s="4"/>
       <c r="K223" s="4"/>
       <c r="L223" s="4"/>
       <c r="M223" s="4"/>
@@ -10500,19 +10490,19 @@
         <v>223</v>
       </c>
       <c r="D224" s="15" t="s">
-        <v>857</v>
-      </c>
-      <c r="E224" s="4" t="s">
-        <v>572</v>
+        <v>841</v>
+      </c>
+      <c r="E224" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="G224" s="4"/>
-      <c r="H224" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="I224" s="13"/>
+        <v>20</v>
+      </c>
+      <c r="G224" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H224" s="13"/>
+      <c r="I224" s="4"/>
       <c r="J224" s="4"/>
       <c r="K224" s="4"/>
       <c r="L224" s="4"/>
@@ -10526,11 +10516,11 @@
       <c r="D225" s="15" t="s">
         <v>841</v>
       </c>
-      <c r="E225" s="4" t="s">
+      <c r="E225" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G225" s="4" t="s">
         <v>2</v>
@@ -10548,20 +10538,24 @@
         <v>225</v>
       </c>
       <c r="D226" s="15" t="s">
-        <v>841</v>
+        <v>857</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G226" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H226" s="13"/>
-      <c r="I226" s="13"/>
-      <c r="J226" s="4"/>
+        <v>797</v>
+      </c>
+      <c r="G226" s="4"/>
+      <c r="H226" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="I226" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="J226" s="4" t="s">
+        <v>823</v>
+      </c>
       <c r="K226" s="4"/>
       <c r="L226" s="4"/>
       <c r="M226" s="4"/>
@@ -10572,19 +10566,17 @@
         <v>226</v>
       </c>
       <c r="D227" s="15" t="s">
-        <v>841</v>
-      </c>
-      <c r="E227" s="13" t="s">
-        <v>235</v>
+        <v>857</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G227" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H227" s="13" t="s">
-        <v>862</v>
+        <v>860</v>
+      </c>
+      <c r="G227" s="4"/>
+      <c r="H227" s="4" t="s">
+        <v>861</v>
       </c>
       <c r="I227" s="13"/>
       <c r="J227" s="4"/>
@@ -10600,11 +10592,11 @@
       <c r="D228" s="15" t="s">
         <v>841</v>
       </c>
-      <c r="E228" s="13" t="s">
-        <v>235</v>
+      <c r="E228" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>239</v>
+        <v>22</v>
       </c>
       <c r="G228" s="4" t="s">
         <v>2</v>
@@ -10624,18 +10616,16 @@
       <c r="D229" s="15" t="s">
         <v>841</v>
       </c>
-      <c r="E229" s="13" t="s">
-        <v>235</v>
+      <c r="E229" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H229" s="13" t="s">
-        <v>863</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H229" s="13"/>
       <c r="I229" s="13"/>
       <c r="J229" s="4"/>
       <c r="K229" s="4"/>
@@ -10654,12 +10644,14 @@
         <v>235</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H230" s="13"/>
+        <v>56</v>
+      </c>
+      <c r="H230" s="13" t="s">
+        <v>862</v>
+      </c>
       <c r="I230" s="13"/>
       <c r="J230" s="4"/>
       <c r="K230" s="4"/>
@@ -10678,14 +10670,12 @@
         <v>235</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H231" s="13" t="s">
-        <v>864</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H231" s="13"/>
       <c r="I231" s="13"/>
       <c r="J231" s="4"/>
       <c r="K231" s="4"/>
@@ -10704,12 +10694,14 @@
         <v>235</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H232" s="13"/>
+        <v>56</v>
+      </c>
+      <c r="H232" s="13" t="s">
+        <v>863</v>
+      </c>
       <c r="I232" s="13"/>
       <c r="J232" s="4"/>
       <c r="K232" s="4"/>
@@ -10725,13 +10717,13 @@
         <v>841</v>
       </c>
       <c r="E233" s="13" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>865</v>
+        <v>239</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>137</v>
+        <v>2</v>
       </c>
       <c r="H233" s="13"/>
       <c r="I233" s="13"/>
@@ -10749,15 +10741,17 @@
         <v>841</v>
       </c>
       <c r="E234" s="13" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>17</v>
+        <v>247</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H234" s="13"/>
+        <v>56</v>
+      </c>
+      <c r="H234" s="13" t="s">
+        <v>864</v>
+      </c>
       <c r="I234" s="13"/>
       <c r="J234" s="4"/>
       <c r="K234" s="4"/>
@@ -10776,7 +10770,7 @@
         <v>235</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>95</v>
+        <v>244</v>
       </c>
       <c r="G235" s="4" t="s">
         <v>2</v>
@@ -10793,17 +10787,17 @@
       <c r="C236" s="4">
         <v>235</v>
       </c>
-      <c r="D236" s="12" t="s">
-        <v>815</v>
+      <c r="D236" s="15" t="s">
+        <v>841</v>
       </c>
       <c r="E236" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F236" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G236" s="13" t="s">
-        <v>2</v>
+        <v>272</v>
+      </c>
+      <c r="F236" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="G236" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="H236" s="13"/>
       <c r="I236" s="13"/>
@@ -10818,15 +10812,15 @@
         <v>236</v>
       </c>
       <c r="D237" s="15" t="s">
-        <v>815</v>
+        <v>841</v>
       </c>
       <c r="E237" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F237" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G237" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="F237" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G237" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H237" s="13"/>
@@ -10842,21 +10836,19 @@
         <v>237</v>
       </c>
       <c r="D238" s="15" t="s">
-        <v>815</v>
-      </c>
-      <c r="E238" s="4" t="s">
-        <v>616</v>
+        <v>841</v>
+      </c>
+      <c r="E238" s="13" t="s">
+        <v>235</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>617</v>
+        <v>95</v>
       </c>
       <c r="G238" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H238" s="4" t="s">
-        <v>831</v>
-      </c>
-      <c r="I238" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H238" s="13"/>
+      <c r="I238" s="13"/>
       <c r="J238" s="4"/>
       <c r="K238" s="4"/>
       <c r="L238" s="4"/>
@@ -10867,20 +10859,20 @@
       <c r="C239" s="4">
         <v>238</v>
       </c>
-      <c r="D239" s="15" t="s">
+      <c r="D239" s="12" t="s">
         <v>815</v>
       </c>
-      <c r="E239" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="F239" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G239" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H239" s="4"/>
-      <c r="I239" s="4"/>
+      <c r="E239" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F239" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G239" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H239" s="13"/>
+      <c r="I239" s="13"/>
       <c r="J239" s="4"/>
       <c r="K239" s="4"/>
       <c r="L239" s="4"/>
@@ -10894,21 +10886,17 @@
       <c r="D240" s="15" t="s">
         <v>815</v>
       </c>
-      <c r="E240" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="F240" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="G240" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H240" s="4">
-        <v>2</v>
-      </c>
-      <c r="I240" s="4" t="s">
-        <v>868</v>
-      </c>
+      <c r="E240" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F240" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G240" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H240" s="13"/>
+      <c r="I240" s="13"/>
       <c r="J240" s="4"/>
       <c r="K240" s="4"/>
       <c r="L240" s="4"/>
@@ -10923,15 +10911,17 @@
         <v>815</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>178</v>
+        <v>617</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H241" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H241" s="4" t="s">
+        <v>831</v>
+      </c>
       <c r="I241" s="4"/>
       <c r="J241" s="4"/>
       <c r="K241" s="4"/>
@@ -10947,10 +10937,10 @@
         <v>815</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="G242" s="4" t="s">
         <v>2</v>
@@ -10971,16 +10961,20 @@
         <v>815</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>271</v>
+        <v>619</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>17</v>
+        <v>620</v>
       </c>
       <c r="G243" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H243" s="4"/>
-      <c r="I243" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H243" s="4">
+        <v>2</v>
+      </c>
+      <c r="I243" s="4" t="s">
+        <v>868</v>
+      </c>
       <c r="J243" s="4"/>
       <c r="K243" s="4"/>
       <c r="L243" s="4"/>
@@ -10991,29 +10985,101 @@
       <c r="C244" s="4">
         <v>243</v>
       </c>
-      <c r="D244" s="12" t="s">
+      <c r="D244" s="15" t="s">
         <v>815</v>
       </c>
-      <c r="E244" s="13" t="s">
-        <v>616</v>
+      <c r="E244" s="4" t="s">
+        <v>619</v>
       </c>
       <c r="F244" s="4" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="G244" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H244" s="13"/>
-      <c r="I244" s="13"/>
+      <c r="H244" s="4"/>
+      <c r="I244" s="4"/>
       <c r="J244" s="4"/>
       <c r="K244" s="4"/>
       <c r="L244" s="4"/>
       <c r="M244" s="4"/>
       <c r="N244" s="16"/>
     </row>
+    <row r="245" spans="3:14">
+      <c r="C245" s="4">
+        <v>244</v>
+      </c>
+      <c r="D245" s="15" t="s">
+        <v>815</v>
+      </c>
+      <c r="E245" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="F245" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G245" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H245" s="4"/>
+      <c r="I245" s="4"/>
+      <c r="J245" s="4"/>
+      <c r="K245" s="4"/>
+      <c r="L245" s="4"/>
+      <c r="M245" s="4"/>
+      <c r="N245" s="16"/>
+    </row>
+    <row r="246" spans="3:14">
+      <c r="C246" s="4">
+        <v>245</v>
+      </c>
+      <c r="D246" s="15" t="s">
+        <v>815</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F246" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G246" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H246" s="4"/>
+      <c r="I246" s="4"/>
+      <c r="J246" s="4"/>
+      <c r="K246" s="4"/>
+      <c r="L246" s="4"/>
+      <c r="M246" s="4"/>
+      <c r="N246" s="16"/>
+    </row>
+    <row r="247" spans="3:14">
+      <c r="C247" s="4">
+        <v>246</v>
+      </c>
+      <c r="D247" s="12" t="s">
+        <v>815</v>
+      </c>
+      <c r="E247" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="F247" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G247" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H247" s="13"/>
+      <c r="I247" s="13"/>
+      <c r="J247" s="4"/>
+      <c r="K247" s="4"/>
+      <c r="L247" s="4"/>
+      <c r="M247" s="4"/>
+      <c r="N247" s="16"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N244">
+  <conditionalFormatting sqref="N2:N247">
     <cfRule type="cellIs" dxfId="1" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -11022,16 +11088,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F244">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F247">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G244">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G247">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D201:D214 D3:D36 D238:D243 D225:D235 D182:D195 D197:D199 D178:D180 D163:D176 D159:D161 D144:D157 D120:D142 D93:D97 D99:D105 D107:D114 D116:D118 D38:D91 D216:D219 D221:D223">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D204:D217 D3:D36 D241:D246 D228:D238 D185:D198 D200:D202 D181:D183 D120:D143 D161:D163 D165:D179 D224:D226 D93:D97 D99:D105 D107:D114 D116:D118 D38:D91 D219:D222 D145:D159">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E244">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E247">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
